--- a/Addresses.xlsx
+++ b/Addresses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82C191-98D2-49ED-B312-A7B00BD13A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A91BF58-472A-4F81-92A8-7C2BA682E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2DB7BB87-1706-495C-8A4A-81C003E6C41C}"/>
+    <workbookView minimized="1" xWindow="540" yWindow="0" windowWidth="23970" windowHeight="12870" xr2:uid="{2DB7BB87-1706-495C-8A4A-81C003E6C41C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,9 +327,6 @@
     <t>Region VI</t>
   </si>
   <si>
-    <t xml:space="preserve">Aklan </t>
-  </si>
-  <si>
     <t>Brgy. Matiguib, Makato, Aklan</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Region IX</t>
+  </si>
+  <si>
+    <t>Aklan</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92911D6D-C62A-45A0-804E-999B0F31D56A}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,10 +1762,10 @@
         <v>98</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1773,10 +1773,10 @@
         <v>98</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1784,10 +1784,10 @@
         <v>98</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1795,10 +1795,10 @@
         <v>98</v>
       </c>
       <c r="B49" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1806,10 +1806,10 @@
         <v>98</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1817,450 +1817,450 @@
         <v>98</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>109</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="C52" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="C66" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B67" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>155</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="13" t="s">
         <v>163</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="C77" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B78" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="C81" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B82" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B85" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="C86" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B87" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B90" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
